--- a/flex/pilot.xlsx
+++ b/flex/pilot.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taol9/gitsss/yo/flex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397DDC31-D8EA-E647-BF7E-B05D55115667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AF78E6-C2CB-734D-80EB-D18586A2C797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="900" windowWidth="34900" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="22240" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilot" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -218,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -250,15 +260,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,34 +296,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FEAF2C-CB1D-0648-93D3-E82755EC9284}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,439 +655,198 @@
     <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="16">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="4">
         <v>22.6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G3" s="14">
         <v>7.3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="4">
         <v>6.5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G4" s="14">
         <v>0.36</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E6" s="4">
         <v>0.01</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G6" s="14">
         <v>21</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>175</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="13"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="13"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16" s="12"/>
+      <c r="L16" s="15"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+    <sortCondition descending="1" ref="E2:E6"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L13:L14"/>

--- a/flex/pilot.xlsx
+++ b/flex/pilot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taol9/gitsss/yo/flex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AF78E6-C2CB-734D-80EB-D18586A2C797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FFCDD0-D0DA-4846-B2BA-75B8FFA0415B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="22240" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16620" yWindow="10540" windowWidth="21620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilot" sheetId="5" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -315,16 +317,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +644,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -697,7 +699,7 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>175</v>
       </c>
     </row>
@@ -760,13 +762,13 @@
       <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -815,33 +817,33 @@
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I12" s="13"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I14" s="13"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K16" s="12"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="18"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
